--- a/search_engine/datasheet-ex.xlsx
+++ b/search_engine/datasheet-ex.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/search_engine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/xml-archive/search_engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8B4B0A-2D8B-C34F-A2ED-1600589E9220}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53143A-C0E0-EA45-843E-EC1E977A3AD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="24360" windowHeight="16600" xr2:uid="{0596D2EE-6A48-9240-AC1A-6F31E32F3D38}"/>
+    <workbookView xWindow="2800" yWindow="500" windowWidth="24360" windowHeight="16600" xr2:uid="{0596D2EE-6A48-9240-AC1A-6F31E32F3D38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +545,7 @@
     <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="26.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="44" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" customWidth="1"/>

--- a/search_engine/datasheet-ex.xlsx
+++ b/search_engine/datasheet-ex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasiabernat/Desktop/git_repositories/xml-archive/search_engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC53143A-C0E0-EA45-843E-EC1E977A3AD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521E8E44-B6EA-C641-8779-2F4D07B411B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="500" windowWidth="24360" windowHeight="16600" xr2:uid="{0596D2EE-6A48-9240-AC1A-6F31E32F3D38}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="24360" windowHeight="16600" xr2:uid="{0596D2EE-6A48-9240-AC1A-6F31E32F3D38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Software</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Experiment</t>
+  </si>
+  <si>
+    <t>Article_Title</t>
   </si>
 </sst>
 </file>
@@ -529,57 +532,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E30A0-E9CA-644B-BABA-D01B4F4D28E8}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="26.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="50.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="44" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="15" width="25.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="50.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
@@ -593,153 +597,159 @@
         <v>19</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="Q1" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="b">
+      <c r="E3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="b">
+      <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="315" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="315" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="b">
+      <c r="E4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="b">
+      <c r="G4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
